--- a/Assets/StreamingAssets/config/Localization.xlsx
+++ b/Assets/StreamingAssets/config/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25968" windowHeight="13380"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizedStrings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
   <si>
     <t>int</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>Replay41</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间：</t>
+  </si>
+  <si>
+    <t>time:</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>rpg_06_hp</t>
+  </si>
+  <si>
+    <t>rpg_08_skill</t>
   </si>
 </sst>
 </file>
@@ -1451,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2228,6 +2246,34 @@
       </c>
       <c r="D55" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
